--- a/sql-example-databases.xlsx
+++ b/sql-example-databases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Butamula\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Butamula\Documents\sql-example-dbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13BD4C6-F8BB-4D0F-A245-944BE7895EFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E7EC0D-3ABE-4847-A435-7B8750D9B1C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="6" xr2:uid="{F4038615-EAEE-4B90-8342-51E262B0C298}"/>
   </bookViews>
@@ -395,7 +395,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -428,9 +428,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,14 +1119,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1138,7 +1138,7 @@
       <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1155,7 +1155,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>100000</v>
       </c>
       <c r="D2" s="1">
@@ -1172,7 +1172,7 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>20000</v>
       </c>
       <c r="D3" s="1">
@@ -1189,7 +1189,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>50000</v>
       </c>
       <c r="D4" s="1">
@@ -1206,7 +1206,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>75000</v>
       </c>
       <c r="D5" s="1">
@@ -1223,7 +1223,7 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>15000</v>
       </c>
       <c r="D6" s="1">
@@ -1240,7 +1240,7 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>55000</v>
       </c>
       <c r="D7" s="1">
@@ -1257,7 +1257,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>250000</v>
       </c>
       <c r="D8" s="1">
@@ -1274,7 +1274,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>500000</v>
       </c>
       <c r="D9" s="1">
@@ -1291,7 +1291,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>120000</v>
       </c>
       <c r="D10" s="1">
@@ -1308,7 +1308,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>500000</v>
       </c>
       <c r="D11" s="1">
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
       <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>500</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>200</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>335</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>2000</v>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>500</v>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>2000</v>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>750</v>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>800</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>250</v>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>1200</v>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>2000</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>2500</v>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       <c r="C16" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>2550</v>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>1960</v>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1996,7 +1996,7 @@
       <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D1" t="s">
@@ -2010,7 +2010,7 @@
       <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2500</v>
       </c>
       <c r="D2">
@@ -2024,7 +2024,7 @@
       <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3000</v>
       </c>
       <c r="D3">
@@ -2038,7 +2038,7 @@
       <c r="B4" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>6000</v>
       </c>
       <c r="D4">
@@ -2052,7 +2052,7 @@
       <c r="B5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>5000</v>
       </c>
       <c r="D5">
@@ -2066,7 +2066,7 @@
       <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2600</v>
       </c>
       <c r="D6">
@@ -2080,7 +2080,7 @@
       <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>3000</v>
       </c>
       <c r="D7">
@@ -2094,7 +2094,7 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>9000</v>
       </c>
       <c r="D8">
@@ -2108,7 +2108,7 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>6000</v>
       </c>
       <c r="D9">
@@ -2122,7 +2122,7 @@
       <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>9000</v>
       </c>
       <c r="D10">
@@ -2136,7 +2136,7 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>5000</v>
       </c>
       <c r="D11">
@@ -2153,24 +2153,24 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2178,10 +2178,10 @@
       <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3223</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2189,10 +2189,10 @@
       <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>3297</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>87</v>
       </c>
     </row>
@@ -2200,10 +2200,10 @@
       <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3299</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>34</v>
       </c>
     </row>
@@ -2211,10 +2211,10 @@
       <c r="A5" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3212</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2222,10 +2222,10 @@
       <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3223</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>50</v>
       </c>
     </row>
@@ -2233,10 +2233,10 @@
       <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2101</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>432</v>
       </c>
     </row>
@@ -2244,10 +2244,10 @@
       <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2109</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -2255,10 +2255,10 @@
       <c r="A9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2123</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>34</v>
       </c>
     </row>
@@ -2266,10 +2266,10 @@
       <c r="A10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2125</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>200</v>
       </c>
     </row>
@@ -2277,10 +2277,10 @@
       <c r="A11" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3212</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
     </row>
@@ -2288,10 +2288,10 @@
       <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>3223</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2299,10 +2299,10 @@
       <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>3297</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>42</v>
       </c>
     </row>
@@ -2310,10 +2310,10 @@
       <c r="A14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>7821</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2321,10 +2321,10 @@
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>7823</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>45</v>
       </c>
     </row>
@@ -2332,10 +2332,10 @@
       <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>7821</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>10</v>
       </c>
     </row>
@@ -2343,10 +2343,10 @@
       <c r="A17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>7829</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2354,10 +2354,10 @@
       <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>7830</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2365,10 +2365,10 @@
       <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>4521</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2376,10 +2376,10 @@
       <c r="A20" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>4532</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2387,10 +2387,10 @@
       <c r="A21" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>4533</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -2398,10 +2398,10 @@
       <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>4521</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2409,10 +2409,10 @@
       <c r="A23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>4534</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>300</v>
       </c>
     </row>
@@ -2420,10 +2420,10 @@
       <c r="A24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>2101</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -2431,10 +2431,10 @@
       <c r="A25" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>2109</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>800</v>
       </c>
     </row>
@@ -2442,10 +2442,10 @@
       <c r="A26" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>2125</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>56</v>
       </c>
     </row>
@@ -2453,10 +2453,10 @@
       <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>4521</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>10</v>
       </c>
     </row>
@@ -2464,10 +2464,10 @@
       <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>4532</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2475,10 +2475,10 @@
       <c r="A29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>4533</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2486,10 +2486,10 @@
       <c r="A30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>4534</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2497,10 +2497,10 @@
       <c r="A31" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>7829</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -2508,10 +2508,10 @@
       <c r="A32" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>3223</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>150</v>
       </c>
     </row>
@@ -2519,10 +2519,10 @@
       <c r="A33" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>3297</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>10</v>
       </c>
     </row>
@@ -2530,10 +2530,10 @@
       <c r="A34" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>2101</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2541,10 +2541,10 @@
       <c r="A35" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>2109</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -2552,10 +2552,10 @@
       <c r="A36" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>2125</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>345</v>
       </c>
     </row>
@@ -2563,10 +2563,10 @@
       <c r="A37" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>7830</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>30</v>
       </c>
     </row>
